--- a/biology/Zoologie/Callicore_sorana/Callicore_sorana.xlsx
+++ b/biology/Zoologie/Callicore_sorana/Callicore_sorana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callicore sorana est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae et du genre Callicore.
 </t>
@@ -511,14 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Callicore sorana a été décrit par le naturaliste français Jean-Baptiste Godart en 1824 sous le nom initial de Nymphalis sorana[1].
-Noms vernaculaires
-Callicore sorana se nomme Zigzag Callicore en anglais et Pará Zigzag en espagnol[2].
-Sous-espèces
- Callicore sorana sorana; présent en Bolivie et au Brésil.
- Callicore sorana horstii (Mengel, 1916); présent en Bolivie[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore sorana a été décrit par le naturaliste français Jean-Baptiste Godart en 1824 sous le nom initial de Nymphalis sorana.
+</t>
         </is>
       </c>
     </row>
@@ -543,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Callicore sorana est un papillon d'une envergure d'environ 50 mm, au dessus des ailes antérieures de couleur rouge barrées d'une bande noire allant de la moitié du bord costal à l'angle externe, puis d'une seconde bordant l'apex, et aux ailes postérieures bleu violet.
-Le revers des ailes antérieures est semblable au dessus alors que les ailes postérieures sont de couleur grise, ornées d'un zigzag blanc et présentent deux gros ocelles dont un double pupillé d'argent[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore sorana se nomme Zigzag Callicore en anglais et Pará Zigzag en espagnol.
 </t>
         </is>
       </c>
@@ -575,14 +590,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Annonaceae ( Annona etSapindaceae)[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore sorana sorana; présent en Bolivie et au Brésil.
+ Callicore sorana horstii (Mengel, 1916); présent en Bolivie.</t>
         </is>
       </c>
     </row>
@@ -607,18 +627,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callicore sorana est présent en Bolivie, en Argentine, au Paraguay et au Brésil[1].
-Sur les autres projets Wikimedia :
-Callicore sorana, sur Wikimedia CommonsCallicore sorana, sur Wikispecies
-Biotope
-Callicore sorana réside dans la forêt tropicale humide[2].
-Protection
-Pas de statut de protection particulier.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore sorana est un papillon d'une envergure d'environ 50 mm, au dessus des ailes antérieures de couleur rouge barrées d'une bande noire allant de la moitié du bord costal à l'angle externe, puis d'une seconde bordant l'apex, et aux ailes postérieures bleu violet.
+Le revers des ailes antérieures est semblable au dessus alors que les ailes postérieures sont de couleur grise, ornées d'un zigzag blanc et présentent deux gros ocelles dont un double pupillé d'argent.
 </t>
         </is>
       </c>
@@ -644,10 +661,158 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Annonaceae ( Annona etSapindaceae).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Callicore_sorana</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_sorana</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore sorana est présent en Bolivie, en Argentine, au Paraguay et au Brésil.
+Sur les autres projets Wikimedia :
+Callicore sorana, sur Wikimedia CommonsCallicore sorana, sur Wikispecies
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Callicore_sorana</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_sorana</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore sorana réside dans la forêt tropicale humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Callicore_sorana</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_sorana</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Callicore_sorana</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_sorana</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Ce papillon figure sur plusieurs timbres-poste *
 Sur une émission de Cuba de 1984 (valeur faciale : 50 c.).
